--- a/TuaregDocumentacion/EMV TuaregWeb.xlsx
+++ b/TuaregDocumentacion/EMV TuaregWeb.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edmol\Documents\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>EMV(Valor Monetario Esperado) de Tuareg Web</t>
   </si>
@@ -44,9 +44,6 @@
     <t>El trabajo completo del proyecto se sale de las manos a la cantidad de trabajadores que se tiene.</t>
   </si>
   <si>
-    <t>Los riesgos son muy elevados.</t>
-  </si>
-  <si>
     <t>Existe una perdida monetaria elevada en el proyecto.</t>
   </si>
   <si>
@@ -68,15 +65,9 @@
     <t>Las prioridades de las historias de uso están mal y se termina haciendo los trabajos en mal orden y se llega a un retraso en el tiempo.</t>
   </si>
   <si>
-    <t>El interfaz del usuario no termina siendo amigable.</t>
-  </si>
-  <si>
     <t>Aparecen bugs en el juego tanto pequeños como grandes.</t>
   </si>
   <si>
-    <t>El tutorial tiene fallos.</t>
-  </si>
-  <si>
     <t>Existe una incompatibilidad con el software utilizado.</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>&lt;Se pierden o borran los archivos del proyecto.</t>
   </si>
   <si>
-    <t>Se tendrán que realizar de nuevo y el proyecto se retrasa&gt;</t>
-  </si>
-  <si>
     <t>Costo de Riesgo(Puntos)</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>No pueden trabajar por mucho tiempo y se retrasa el proyecto&gt;</t>
   </si>
   <si>
-    <t>No se llega a completar el desarrollo del tutorial.</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -120,6 +105,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Incorrecta formulación de ELO para el juego.</t>
+  </si>
+  <si>
+    <t>La interfaz del usuario no termina siendo amigable.</t>
+  </si>
+  <si>
+    <t>Se tendrán que realizar de nuevo los archivos y el proyecto se retrasa&gt;</t>
+  </si>
+  <si>
+    <t>El reglamento tiene errores.</t>
+  </si>
+  <si>
+    <t>No se llega a completa la página del reglamento del juego.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +156,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,20 +272,57 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -292,45 +332,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -648,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,502 +674,489 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="4">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2">
         <v>0.2</v>
       </c>
-      <c r="G3" s="5">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="4">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="2">
         <v>0.1</v>
       </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>7</v>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="4">
+      <c r="E6" s="22"/>
+      <c r="F6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14">
+        <f>SUM(G6,G7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="25">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="25">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16">
+        <f>SUM(G11,G12)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="25">
+        <v>5</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2">
         <v>0.03</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G12" s="11">
-        <v>5</v>
-      </c>
-      <c r="H12" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>4</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="5">
-        <v>3</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="5">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="G24" s="5">
-        <v>4</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G28" s="19">
-        <v>2</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="20">
-        <f>SUM(G3:G28)</f>
-        <v>62</v>
-      </c>
-      <c r="H29" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6">
+        <f>SUM(G3:G27)</f>
+        <v>134</v>
+      </c>
+      <c r="H28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>